--- a/biology/Botanique/Physematium_oreganum/Physematium_oreganum.xlsx
+++ b/biology/Botanique/Physematium_oreganum/Physematium_oreganum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Physematium oreganum, la woodsie d'Orégon, est une espèce de plantes de la famille des Woodsiaceae. Elle était dénommée précédemment Woodsia oregana[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Physematium oreganum, la woodsie d'Orégon, est une espèce de plantes de la famille des Woodsiaceae. Elle était dénommée précédemment Woodsia oregana.
 C'est une fougères pérenne.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire d'une grande partie des États-Unis et du Canada[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire d'une grande partie des États-Unis et du Canada.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Physematium oreganum (D.C.Eaton (d)) Trevis.[3].
-L'espèce a été initialement classée dans le genre Woodsia sous le basionyme Woodsia oregana D.C.Eaton[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Physematium oreganum (D.C.Eaton (d)) Trevis..
+L'espèce a été initialement classée dans le genre Woodsia sous le basionyme Woodsia oregana D.C.Eaton.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 décembre 2023)[3],[4]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 décembre 2023),:
 Physematium oreganum subsp. cathcartianum (B.L.Rob.) Li Bing Zhang, N.T.Lu &amp; X.F.Gao (B.L.Rob.) Windham, 1993  -- Woodsie de Cathcart
 Physematium oreganum subsp. oreganum D.C.Eaton (en) -- Woodsie d'Orégon</t>
         </is>
